--- a/public/reportcard/1/(2024-2025)CRUZ,_JUAN_DELA-Grade7-Rose.xlsx
+++ b/public/reportcard/1/(2024-2025)CRUZ,_JUAN_DELA-Grade7-Rose.xlsx
@@ -155,7 +155,7 @@
     <t>PARENT'S/GUARDIAN'S SIGNATURE</t>
   </si>
   <si>
-    <t>LEONCITO, PATRICK YANGORING</t>
+    <t>DE GUZMAN, AMELIA SANTOS</t>
   </si>
   <si>
     <r>
